--- a/mobi_client/mobi_client/mobi_config/excel/网络提示信息表.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/网络提示信息表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="242">
   <si>
     <t>id</t>
   </si>
@@ -728,6 +728,18 @@
   </si>
   <si>
     <t>迷宫事件已经完成过了</t>
+  </si>
+  <si>
+    <t>ShopCoinNotEnough</t>
+  </si>
+  <si>
+    <t>货币不足</t>
+  </si>
+  <si>
+    <t>ServerSeriousError</t>
+  </si>
+  <si>
+    <t>服务器严重错误</t>
   </si>
 </sst>
 </file>
@@ -1821,10 +1833,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G118"/>
+  <dimension ref="A1:G120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="E118" sqref="E118"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="E120" sqref="E120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -3511,6 +3523,34 @@
         <v>607</v>
       </c>
     </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="1">
+        <v>116</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E119" s="3">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="1">
+        <v>116</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E120" s="3">
+        <v>9999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/mobi_client/mobi_client/mobi_config/excel/网络提示信息表.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/网络提示信息表.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="245">
   <si>
     <t>id</t>
   </si>
   <si>
-    <t>键</t>
+    <t>CommonConfigError</t>
   </si>
   <si>
     <t>变量值</t>
@@ -740,6 +740,15 @@
   </si>
   <si>
     <t>服务器严重错误</t>
+  </si>
+  <si>
+    <t>PatrolHasSelectedQuest</t>
+  </si>
+  <si>
+    <t>巡逻任务同时只能接取1个</t>
+  </si>
+  <si>
+    <t>通用配置错误</t>
   </si>
 </sst>
 </file>
@@ -752,7 +761,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -777,6 +786,12 @@
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1271,10 +1286,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1283,34 +1298,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1322,94 +1334,97 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1419,7 +1434,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1482,6 +1497,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="51">
@@ -1833,10 +1851,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G120"/>
+  <dimension ref="A1:G123"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="E120" sqref="E120"/>
+      <selection activeCell="E122" sqref="E122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -3551,6 +3569,37 @@
         <v>9999</v>
       </c>
     </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="1">
+        <v>117</v>
+      </c>
+      <c r="B121" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="E121" s="3">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="1">
+        <v>118</v>
+      </c>
+      <c r="B122" t="s">
+        <v>1</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E122" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2">
+      <c r="B123"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
